--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Lgi3</t>
+  </si>
+  <si>
+    <t>Flot1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi3</t>
-  </si>
-  <si>
-    <t>Flot1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>1.719189</v>
       </c>
       <c r="I2">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4050635</v>
+        <v>15.312044</v>
       </c>
       <c r="N2">
-        <v>26.810127</v>
+        <v>30.624088</v>
       </c>
       <c r="O2">
-        <v>0.1670855956838449</v>
+        <v>0.1419723064612893</v>
       </c>
       <c r="P2">
-        <v>0.123134816056884</v>
+        <v>0.1021446887499443</v>
       </c>
       <c r="Q2">
-        <v>7.6819459045005</v>
+        <v>8.774765870772001</v>
       </c>
       <c r="R2">
-        <v>46.091675427003</v>
+        <v>52.648595224632</v>
       </c>
       <c r="S2">
-        <v>0.1460097604377235</v>
+        <v>0.1419723064612893</v>
       </c>
       <c r="T2">
-        <v>0.1123256863464327</v>
+        <v>0.1021446887499443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>1.719189</v>
       </c>
       <c r="I3">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.60032866666667</v>
+        <v>13.60032866666666</v>
       </c>
       <c r="N3">
-        <v>40.800986</v>
+        <v>40.80098599999999</v>
       </c>
       <c r="O3">
-        <v>0.1695194518672793</v>
+        <v>0.1261013898234787</v>
       </c>
       <c r="P3">
-        <v>0.1873926932927061</v>
+        <v>0.1360890817601109</v>
       </c>
       <c r="Q3">
-        <v>7.793845146706</v>
+        <v>7.793845146705999</v>
       </c>
       <c r="R3">
-        <v>70.144606320354</v>
+        <v>70.14460632035399</v>
       </c>
       <c r="S3">
-        <v>0.1481366149809215</v>
+        <v>0.1261013898234787</v>
       </c>
       <c r="T3">
-        <v>0.1709428215711619</v>
+        <v>0.1360890817601109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>1.719189</v>
       </c>
       <c r="I4">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.38021633333333</v>
+        <v>24.75972566666667</v>
       </c>
       <c r="N4">
-        <v>52.140649</v>
+        <v>74.279177</v>
       </c>
       <c r="O4">
-        <v>0.2166333489706401</v>
+        <v>0.2295706151474911</v>
       </c>
       <c r="P4">
-        <v>0.2394740324692066</v>
+        <v>0.2477534486991749</v>
       </c>
       <c r="Q4">
-        <v>9.959958912629</v>
+        <v>14.188882669717</v>
       </c>
       <c r="R4">
-        <v>89.63963021366098</v>
+        <v>127.699944027453</v>
       </c>
       <c r="S4">
-        <v>0.1893076614807389</v>
+        <v>0.2295706151474911</v>
       </c>
       <c r="T4">
-        <v>0.2184523104076843</v>
+        <v>0.2477534486991749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>1.719189</v>
       </c>
       <c r="I5">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.551231</v>
+        <v>8.434075</v>
       </c>
       <c r="N5">
-        <v>19.102462</v>
+        <v>16.86815</v>
       </c>
       <c r="O5">
-        <v>0.1190500232355487</v>
+        <v>0.0782002115862192</v>
       </c>
       <c r="P5">
-        <v>0.08773468863476909</v>
+        <v>0.05626263650814261</v>
       </c>
       <c r="Q5">
-        <v>5.473457090553</v>
+        <v>4.833256321725</v>
       </c>
       <c r="R5">
-        <v>32.84074254331799</v>
+        <v>28.99953793035</v>
       </c>
       <c r="S5">
-        <v>0.1040332968355844</v>
+        <v>0.0782002115862192</v>
       </c>
       <c r="T5">
-        <v>0.08003308432879293</v>
+        <v>0.05626263650814261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>1.719189</v>
       </c>
       <c r="I6">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.75011133333333</v>
+        <v>29.929525</v>
       </c>
       <c r="N6">
-        <v>38.250334</v>
+        <v>89.78857500000001</v>
       </c>
       <c r="O6">
-        <v>0.1589220332425386</v>
+        <v>0.2775046685825105</v>
       </c>
       <c r="P6">
-        <v>0.1756779384597609</v>
+        <v>0.2994840547309042</v>
       </c>
       <c r="Q6">
-        <v>7.306617051013998</v>
+        <v>17.151503385075</v>
       </c>
       <c r="R6">
-        <v>65.75955345912598</v>
+        <v>154.363530465675</v>
       </c>
       <c r="S6">
-        <v>0.1388759330632267</v>
+        <v>0.2775046685825105</v>
       </c>
       <c r="T6">
-        <v>0.1602564217443016</v>
+        <v>0.2994840547309042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>1.719189</v>
       </c>
       <c r="I7">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.54176933333333</v>
+        <v>15.81663133333333</v>
       </c>
       <c r="N7">
-        <v>40.625308</v>
+        <v>47.449894</v>
       </c>
       <c r="O7">
-        <v>0.1687895470001483</v>
+        <v>0.1466508083990113</v>
       </c>
       <c r="P7">
-        <v>0.1865858310866733</v>
+        <v>0.1582660895517231</v>
       </c>
       <c r="Q7">
-        <v>7.760286959468001</v>
+        <v>9.063926201774001</v>
       </c>
       <c r="R7">
-        <v>69.842582635212</v>
+        <v>81.575335815966</v>
       </c>
       <c r="S7">
-        <v>0.1474987788206233</v>
+        <v>0.1466508083990113</v>
       </c>
       <c r="T7">
-        <v>0.1702067880594233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.082719</v>
-      </c>
-      <c r="H8">
-        <v>0.165438</v>
-      </c>
-      <c r="I8">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J8">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>13.4050635</v>
-      </c>
-      <c r="N8">
-        <v>26.810127</v>
-      </c>
-      <c r="O8">
-        <v>0.1670855956838449</v>
-      </c>
-      <c r="P8">
-        <v>0.123134816056884</v>
-      </c>
-      <c r="Q8">
-        <v>1.1088534476565</v>
-      </c>
-      <c r="R8">
-        <v>4.435413790626</v>
-      </c>
-      <c r="S8">
-        <v>0.02107583524612137</v>
-      </c>
-      <c r="T8">
-        <v>0.01080912971045134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.082719</v>
-      </c>
-      <c r="H9">
-        <v>0.165438</v>
-      </c>
-      <c r="I9">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J9">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.60032866666667</v>
-      </c>
-      <c r="N9">
-        <v>40.800986</v>
-      </c>
-      <c r="O9">
-        <v>0.1695194518672793</v>
-      </c>
-      <c r="P9">
-        <v>0.1873926932927061</v>
-      </c>
-      <c r="Q9">
-        <v>1.125005586978</v>
-      </c>
-      <c r="R9">
-        <v>6.750033521868001</v>
-      </c>
-      <c r="S9">
-        <v>0.02138283688635777</v>
-      </c>
-      <c r="T9">
-        <v>0.01644987172154422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.082719</v>
-      </c>
-      <c r="H10">
-        <v>0.165438</v>
-      </c>
-      <c r="I10">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J10">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>17.38021633333333</v>
-      </c>
-      <c r="N10">
-        <v>52.140649</v>
-      </c>
-      <c r="O10">
-        <v>0.2166333489706401</v>
-      </c>
-      <c r="P10">
-        <v>0.2394740324692066</v>
-      </c>
-      <c r="Q10">
-        <v>1.437674114877</v>
-      </c>
-      <c r="R10">
-        <v>8.626044689261999</v>
-      </c>
-      <c r="S10">
-        <v>0.02732568748990118</v>
-      </c>
-      <c r="T10">
-        <v>0.0210217220615223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.082719</v>
-      </c>
-      <c r="H11">
-        <v>0.165438</v>
-      </c>
-      <c r="I11">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J11">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.551231</v>
-      </c>
-      <c r="N11">
-        <v>19.102462</v>
-      </c>
-      <c r="O11">
-        <v>0.1190500232355487</v>
-      </c>
-      <c r="P11">
-        <v>0.08773468863476909</v>
-      </c>
-      <c r="Q11">
-        <v>0.790068277089</v>
-      </c>
-      <c r="R11">
-        <v>3.160273108356</v>
-      </c>
-      <c r="S11">
-        <v>0.01501672639996424</v>
-      </c>
-      <c r="T11">
-        <v>0.007701604305976158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.082719</v>
-      </c>
-      <c r="H12">
-        <v>0.165438</v>
-      </c>
-      <c r="I12">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J12">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>12.75011133333333</v>
-      </c>
-      <c r="N12">
-        <v>38.250334</v>
-      </c>
-      <c r="O12">
-        <v>0.1589220332425386</v>
-      </c>
-      <c r="P12">
-        <v>0.1756779384597609</v>
-      </c>
-      <c r="Q12">
-        <v>1.054676459382</v>
-      </c>
-      <c r="R12">
-        <v>6.328058756291999</v>
-      </c>
-      <c r="S12">
-        <v>0.02004610017931196</v>
-      </c>
-      <c r="T12">
-        <v>0.01542151671545931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.082719</v>
-      </c>
-      <c r="H13">
-        <v>0.165438</v>
-      </c>
-      <c r="I13">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J13">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.54176933333333</v>
-      </c>
-      <c r="N13">
-        <v>40.625308</v>
-      </c>
-      <c r="O13">
-        <v>0.1687895470001483</v>
-      </c>
-      <c r="P13">
-        <v>0.1865858310866733</v>
-      </c>
-      <c r="Q13">
-        <v>1.120161617484</v>
-      </c>
-      <c r="R13">
-        <v>6.720969704904001</v>
-      </c>
-      <c r="S13">
-        <v>0.02129076817952501</v>
-      </c>
-      <c r="T13">
-        <v>0.01637904302724998</v>
+        <v>0.1582660895517231</v>
       </c>
     </row>
   </sheetData>
